--- a/python_Learning.xlsx
+++ b/python_Learning.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esab-my.sharepoint.com/personal/vijaykumar_c_esab_se/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esab-my.sharepoint.com/personal/vijaykumar_c_esab_se/Documents/Documents/GitHub/learnpython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{2FA4AC87-352E-40D4-B927-DF738D4817CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D107F5B2-A030-432E-8C52-C67E27A49568}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{2FA4AC87-352E-40D4-B927-DF738D4817CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44216716-E1F3-4E07-8263-B1B8A8032FD5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{D2A242C5-1865-4526-A77C-244D4400B8E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{D2A242C5-1865-4526-A77C-244D4400B8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Variable Scope in Python" sheetId="3" r:id="rId3"/>
+    <sheet name="Goal Oriented Plan" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
   <si>
     <t>Introduction</t>
   </si>
@@ -377,15 +379,81 @@
 Def myinput_variable1():
 myinput_variable()</t>
   </si>
+  <si>
+    <t>Why I am learning Python??</t>
+  </si>
+  <si>
+    <t>To automate the manual smoke tests, regression tests, and system test cases by integrating them into the Git CI/CD pipeline for testing Linux-based Gateway products that are integrated with ESAB welding power sources.</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>SMART Goals</t>
+  </si>
+  <si>
+    <t>Learn python for automate the GW features test</t>
+  </si>
+  <si>
+    <t>Complete the course in python and make minimum one commit in the github</t>
+  </si>
+  <si>
+    <t>Min 2 hours per day</t>
+  </si>
+  <si>
+    <t>Support teams testcases development acitivity. Take the TestRig ownership</t>
+  </si>
+  <si>
+    <t>From July to December 2025</t>
+  </si>
+  <si>
+    <t>Learning Plan Breakdown</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Focus Area</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -413,15 +481,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,9 +534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -481,7 +574,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -587,7 +680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -729,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1300,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA52BFF7-5927-4123-9099-10B25443789D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1360,4 +1453,161 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FD015-A2BB-43F9-ADC9-237E87F35299}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="187.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BC1368-CE32-45DA-9994-1A7DE3AF7235}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="3" width="32.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python_Learning.xlsx
+++ b/python_Learning.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esab-my.sharepoint.com/personal/vijaykumar_c_esab_se/Documents/Documents/GitHub/learnpython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{2FA4AC87-352E-40D4-B927-DF738D4817CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44216716-E1F3-4E07-8263-B1B8A8032FD5}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{2FA4AC87-352E-40D4-B927-DF738D4817CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A887F7BC-0EA0-4CB7-A1A6-280799D3BA30}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{D2A242C5-1865-4526-A77C-244D4400B8E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{D2A242C5-1865-4526-A77C-244D4400B8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Variable Scope in Python" sheetId="3" r:id="rId3"/>
-    <sheet name="Goal Oriented Plan" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Learning_Topics" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Variable Scope in Python" sheetId="3" r:id="rId4"/>
+    <sheet name="Goal Oriented Plan" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>Introduction</t>
   </si>
@@ -439,12 +440,84 @@
   <si>
     <t>December</t>
   </si>
+  <si>
+    <t>Syntax and variables</t>
+  </si>
+  <si>
+    <t>Control Flow</t>
+  </si>
+  <si>
+    <t>Master if-else, for and while loops, break, continue and logic building</t>
+  </si>
+  <si>
+    <t>Core Data Structures</t>
+  </si>
+  <si>
+    <t>Learn list, tuples,dictionaries and sets with basic operations</t>
+  </si>
+  <si>
+    <t>Functions and Scope</t>
+  </si>
+  <si>
+    <t>Create reusable functions, handle arguments,return values,recrussion and scope</t>
+  </si>
+  <si>
+    <t>String &amp; list Mastery</t>
+  </si>
+  <si>
+    <t>Learn string methods, slicing, comprehensions (list/dict) and logic</t>
+  </si>
+  <si>
+    <t>File I/O &amp; Error handling</t>
+  </si>
+  <si>
+    <t>Read/Write files, handling exceptions with try.except, and use python modules</t>
+  </si>
+  <si>
+    <t>OOP Concepts</t>
+  </si>
+  <si>
+    <t>Learn classes, Objectes, inheritance,encapsulation and polymorphism</t>
+  </si>
+  <si>
+    <t>Advanced functions</t>
+  </si>
+  <si>
+    <t>Use lambda,map,filter,reduce,generators and decorators</t>
+  </si>
+  <si>
+    <t>API&amp;Modules</t>
+  </si>
+  <si>
+    <t>Work with JSON, API's(request) and install/use third party modules with pip</t>
+  </si>
+  <si>
+    <t>Automation &amp; web scrapping</t>
+  </si>
+  <si>
+    <t>Use os,shutil and beautifulsoup to atuomate tasks and scrape web data</t>
+  </si>
+  <si>
+    <t>Data Handling</t>
+  </si>
+  <si>
+    <t>Use csv,pandas,and matplotlib for data analysis and visualization</t>
+  </si>
+  <si>
+    <t>Build &amp; Share projects</t>
+  </si>
+  <si>
+    <t>Create a mini project, push it to Github and review all key concepts</t>
+  </si>
+  <si>
+    <t>Understand python syntax, datat types (int,float,str,bool) and how to use input and output</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +527,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,14 +589,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,6 +613,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFC4DF9-C25F-460E-9E96-EE3DD0EFE559}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,6 +1234,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C02655A-D673-44FC-912F-85DE83252313}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="76.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AAEF72-C69D-4227-8DE3-FDDFD9D2B83A}">
   <dimension ref="B1:C53"/>
   <sheetViews>
@@ -1389,7 +1613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA52BFF7-5927-4123-9099-10B25443789D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1455,7 +1679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FD015-A2BB-43F9-ADC9-237E87F35299}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -1518,12 +1742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BC1368-CE32-45DA-9994-1A7DE3AF7235}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1534,24 +1758,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1559,49 +1783,49 @@
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
